--- a/Documents/模块分解 细化（草稿0720）.xlsx
+++ b/Documents/模块分解 细化（草稿0720）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1090" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="2180" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>BasicData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,175 +93,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>更新某一车辆数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用List接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增一条车辆数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某一车辆数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapGet()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>graph类型要自己写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前路网状态（地图和车）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultSingle()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultGlobal()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给出所有车辆的全局调度结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapPointAdd()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapRoadFind()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logDelete()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicleGet()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicleRemove()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取当前待处理乘客请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据管理，数据库实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询（返回单个数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapPointFind()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询（返回符合条件的一组数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapRoadDelete()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicleGet()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志，数据库实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestAdd()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用JAVA的Queue接口相关方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除某一车辆数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取地图数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧决策模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的接口是按着数据库写的，网络资料显示JAVA服务端与数据库通信用JDBC，还有一套接口，不知道该怎么写到设计里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapPointDelete()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicleDelete()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicleFind()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志记录新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logGet()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestPeek()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicleSet()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stateGet()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对乘客单次请求，给出一辆车的调度结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑堵车等情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logInCheck()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录请求验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用Map接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAdd()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userDelete()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userSet()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userGet()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userFind()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户数据新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>移除已处理的请求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更新某一车辆数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用List接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增一条车辆数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取某一车辆数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapGet()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>graph类型要自己写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取当前路网状态（地图和车）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultSingle()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultGlobal()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给出所有车辆的全局调度结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapPointAdd()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapRoadFind()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logDelete()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicleGet()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicleRemove()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取当前待处理乘客请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础数据管理，数据库实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询（返回单个数据）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapPointFind()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询（返回符合条件的一组数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapRoadDelete()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicleGet()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志，数据库实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requestAdd()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用JAVA的Queue接口相关方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除某一车辆数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取地图数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智慧决策模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里的接口是按着数据库写的，网络资料显示JAVA服务端与数据库通信用JDBC，还有一套接口，不知道该怎么写到设计里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mapPointDelete()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicleDelete()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicleFind()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志记录新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logGet()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requestPeek()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicleSet()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stateGet()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针对乘客单次请求，给出一辆车的调度结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑堵车等情况</t>
+    <t>requestReturn()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回请求处理状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,16 +349,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -611,352 +658,433 @@
     <col min="5" max="5" width="17.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
+    <row r="26" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="70" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>61</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A1:A15"/>
-    <mergeCell ref="B1:B15"/>
-    <mergeCell ref="E1:E15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="E21:E23"/>
+  <mergeCells count="11">
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B26:B36"/>
+    <mergeCell ref="A1:A20"/>
+    <mergeCell ref="B1:B20"/>
+    <mergeCell ref="E1:E20"/>
+    <mergeCell ref="E26:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
